--- a/VersionRecords/Version 3.4.1/版本Bug和特性计划及评审表v3.4.1_闪电组.xlsx
+++ b/VersionRecords/Version 3.4.1/版本Bug和特性计划及评审表v3.4.1_闪电组.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="39">
   <si>
     <t>No</t>
   </si>
@@ -133,11 +133,15 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>短信告警提醒阀值由3500修改为8000</t>
+    <t>所有包</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>所有包</t>
+    <t>短信告警提醒阀值由3500修改为7000</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>具体见“(生产)需要修改的配置文件”</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -824,8 +828,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:T185"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="P13" sqref="P13"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="S7" sqref="S7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -967,13 +971,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C3" s="26" t="s">
         <v>28</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E3" s="10" t="s">
         <v>30</v>
@@ -1009,7 +1013,9 @@
       <c r="P3" s="13"/>
       <c r="Q3" s="13"/>
       <c r="R3" s="13"/>
-      <c r="S3" s="18"/>
+      <c r="S3" s="18" t="s">
+        <v>38</v>
+      </c>
       <c r="T3" s="19"/>
     </row>
     <row r="4" spans="1:20" ht="16.5">
